--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46972.28810387957</v>
+        <v>45084.70658747712</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13106959.94437522</v>
+        <v>13106959.94437523</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>29.36869738969422</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>320.4649548523028</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>69.40414780104466</v>
       </c>
       <c r="V4" t="n">
-        <v>172.2075379833797</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>183.9140167213356</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>103.0662450902029</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>23.32897990642503</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>164.194452239849</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>203.5763384520712</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>240.7291195778426</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>125.8092116959088</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>43.16288100277494</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>57.85017494300106</v>
       </c>
       <c r="W13" t="n">
-        <v>49.12199829633364</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>106.7148935340133</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>213.8889536739947</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>91.53247030507131</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>79.52497579553895</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>157.7423034700835</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>281.3698338194064</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>246.5807991003671</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>265.226785927462</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>149.1725893558996</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>57.97948033333839</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>21.20383876095922</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>55.21598883571499</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>55.59398798748115</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898631</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463222</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
         <v>42.2873553346313</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2436.277562964205</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2436.277562964205</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2105.214675620634</v>
+        <v>2318.41842695043</v>
       </c>
       <c r="W2" t="n">
-        <v>2105.214675620634</v>
+        <v>1965.649771680316</v>
       </c>
       <c r="X2" t="n">
-        <v>2105.214675620634</v>
+        <v>1965.649771680316</v>
       </c>
       <c r="Y2" t="n">
-        <v>1715.075343644822</v>
+        <v>1965.649771680316</v>
       </c>
     </row>
     <row r="3">
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="V4" t="n">
-        <v>235.5914466506042</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1503.550419308994</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>968.7478615425575</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>582.9596089443132</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>576.0141081951098</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>158.0503000932966</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>158.0503000932966</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284806</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1893.689751284806</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1503.550419308994</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,40 +4653,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X7" t="n">
-        <v>562.2760021459809</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>562.2760021459809</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1773.985778385635</v>
+        <v>686.9351304176944</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>317.9726134772827</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>317.9726134772827</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646715</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>2147.451536646715</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X8" t="n">
-        <v>1773.985778385635</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y8" t="n">
-        <v>1773.985778385635</v>
+        <v>1073.534970481816</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245.4549451025302</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C10" t="n">
-        <v>245.4549451025302</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="D10" t="n">
-        <v>245.4549451025302</v>
+        <v>350.0227938960813</v>
       </c>
       <c r="E10" t="n">
-        <v>97.54185152013713</v>
+        <v>350.0227938960813</v>
       </c>
       <c r="F10" t="n">
-        <v>97.54185152013713</v>
+        <v>350.0227938960813</v>
       </c>
       <c r="G10" t="n">
-        <v>97.54185152013713</v>
+        <v>181.0229936344138</v>
       </c>
       <c r="H10" t="n">
-        <v>97.54185152013713</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>97.54185152013713</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4996,16 +4996,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>245.4549451025302</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.4549451025302</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352016</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W13" t="n">
-        <v>1194.613602254709</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>966.6240513566916</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>745.8314722131613</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1427.741252113634</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>397.7517393246781</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246781</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123423</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>1028.182334196465</v>
+        <v>731.0291971045607</v>
       </c>
       <c r="X16" t="n">
-        <v>800.1927832984479</v>
+        <v>503.0396462065434</v>
       </c>
       <c r="Y16" t="n">
-        <v>579.4002041549178</v>
+        <v>503.0396462065434</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,7 +5510,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5522,25 +5522,25 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.193690363625</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>807.058056547172</v>
+        <v>604.1452103957602</v>
       </c>
       <c r="C19" t="n">
-        <v>638.1218736192651</v>
+        <v>604.1452103957602</v>
       </c>
       <c r="D19" t="n">
-        <v>488.0052342069293</v>
+        <v>604.1452103957602</v>
       </c>
       <c r="E19" t="n">
-        <v>340.0921406245362</v>
+        <v>604.1452103957602</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>457.2552628978498</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>289.0799412176704</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>785.7936752259999</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.499100520942</v>
+        <v>785.7936752259999</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.7065213774117</v>
+        <v>785.7936752259999</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>675.2581065529675</v>
+        <v>542.136771952925</v>
       </c>
       <c r="C22" t="n">
-        <v>675.2581065529675</v>
+        <v>542.136771952925</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2581065529675</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1339.580610487111</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1339.580610487111</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>1084.896122281225</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W22" t="n">
-        <v>1084.896122281225</v>
+        <v>990.9189019944725</v>
       </c>
       <c r="X22" t="n">
-        <v>856.9065713832073</v>
+        <v>762.9293510964551</v>
       </c>
       <c r="Y22" t="n">
-        <v>856.9065713832073</v>
+        <v>542.136771952925</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>566.6879222525852</v>
+        <v>729.1316371486757</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7517393246783</v>
+        <v>560.1954542207689</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>560.1954542207689</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>412.2823606383757</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>1138.769652876933</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>1138.769652876933</v>
       </c>
       <c r="W25" t="n">
-        <v>976.3259379808422</v>
+        <v>1138.769652876933</v>
       </c>
       <c r="X25" t="n">
-        <v>748.3363870828249</v>
+        <v>910.7801019789155</v>
       </c>
       <c r="Y25" t="n">
-        <v>748.3363870828249</v>
+        <v>910.7801019789155</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,13 +6212,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,25 +6227,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,28 +6291,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341675</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N27" t="n">
         <v>2051.878056918008</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>355.6416303362489</v>
+        <v>714.6010158349784</v>
       </c>
       <c r="C28" t="n">
-        <v>355.6416303362489</v>
+        <v>545.6648329070715</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6416303362489</v>
+        <v>395.5481934947358</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362488</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1348.236887370125</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1059.108248583683</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>804.4237603777963</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>804.4237603777963</v>
+        <v>954.8146123150549</v>
       </c>
       <c r="X28" t="n">
-        <v>576.4342094797789</v>
+        <v>896.2494806652181</v>
       </c>
       <c r="Y28" t="n">
-        <v>355.6416303362489</v>
+        <v>896.2494806652181</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>485.404702608941</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>732.169830515405</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215249</v>
+        <v>659.8783819731808</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749888</v>
+        <v>546.7030643266446</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440238</v>
+        <v>452.3472901956795</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430016</v>
+        <v>360.1950618946572</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>269.0659796781175</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>247.6479607276537</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1879.970519634376</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1879.970519634376</v>
+        <v>1623.942368323873</v>
       </c>
       <c r="U31" t="n">
-        <v>1646.602746129305</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1447.679123204789</v>
+        <v>1191.650971894286</v>
       </c>
       <c r="W31" t="n">
-        <v>1214.0228184492</v>
+        <v>957.9946671386965</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832553</v>
+        <v>785.7659815220497</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703938</v>
+        <v>785.7659815220497</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,19 +6698,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>292.8275092861694</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103138</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982982</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7160,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>159.1396882805841</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>570.0299571250968</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254958</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7397,64 +7397,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864553</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506724</v>
@@ -7561,19 +7561,19 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,13 +7588,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,13 +7819,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>297.2466435761025</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928342</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,19 +9249,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>19.14409596997052</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>96.03744927814625</v>
+        <v>283.6093329825489</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165113</v>
+        <v>297.2466435761025</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>199.6230805871087</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>87.16935584025396</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,19 +10428,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>5.100663089359699</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>20.63789864135418</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11145,22 +11145,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>182.0340742867946</v>
       </c>
       <c r="N42" t="n">
-        <v>124.340078086323</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>5.100663089360268</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23464,19 +23464,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>194.2874683808269</v>
       </c>
       <c r="W13" t="n">
-        <v>237.4010000402574</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>73.11708664792395</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,7 +23704,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>72.63404466259632</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>53.88857771785993</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>69.38885257199718</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>63.80525758830577</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>5.153164517184621</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24418,13 +24418,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>39.65655329821028</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>21.296212409129</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24652,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>72.37497170248966</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>167.7301750556988</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>90.08647307386136</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
-        <v>87.12356536756499</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>8.810729923425242e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524994</v>
@@ -26326,34 +26326,34 @@
         <v>273720.3418163963</v>
       </c>
       <c r="G2" t="n">
-        <v>273720.3418163961</v>
+        <v>273720.3418163962</v>
       </c>
       <c r="H2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="I2" t="n">
-        <v>273720.3418163962</v>
+        <v>273720.3418163963</v>
       </c>
       <c r="J2" t="n">
         <v>273720.3418163962</v>
       </c>
       <c r="K2" t="n">
-        <v>284775.4961416894</v>
+        <v>284775.4961416891</v>
       </c>
       <c r="L2" t="n">
+        <v>287364.6194524989</v>
+      </c>
+      <c r="M2" t="n">
+        <v>287364.6194524989</v>
+      </c>
+      <c r="N2" t="n">
+        <v>287364.619452499</v>
+      </c>
+      <c r="O2" t="n">
         <v>287364.6194524993</v>
       </c>
-      <c r="M2" t="n">
-        <v>287364.6194524993</v>
-      </c>
-      <c r="N2" t="n">
-        <v>287364.6194524988</v>
-      </c>
-      <c r="O2" t="n">
-        <v>287364.6194524992</v>
-      </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524991</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086694</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007453</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.7316560074</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007413</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007505</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020404</v>
+        <v>26081.35417020399</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,13 +26482,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26497,19 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-533379.3865413754</v>
       </c>
       <c r="C6" t="n">
+        <v>56588.49267316906</v>
+      </c>
+      <c r="D6" t="n">
         <v>56588.49267316915</v>
       </c>
-      <c r="D6" t="n">
-        <v>56588.49267316914</v>
-      </c>
       <c r="E6" t="n">
-        <v>-351343.7522652238</v>
+        <v>-351441.2113911961</v>
       </c>
       <c r="F6" t="n">
-        <v>173816.2842116722</v>
+        <v>173718.8250857</v>
       </c>
       <c r="G6" t="n">
-        <v>173816.284211672</v>
+        <v>173718.8250856999</v>
       </c>
       <c r="H6" t="n">
-        <v>173816.284211672</v>
+        <v>173718.8250857001</v>
       </c>
       <c r="I6" t="n">
-        <v>173816.2842116721</v>
+        <v>173718.8250856999</v>
       </c>
       <c r="J6" t="n">
-        <v>-2606.934980920705</v>
+        <v>-2704.394106893</v>
       </c>
       <c r="K6" t="n">
-        <v>117903.3281384168</v>
+        <v>117884.8344004823</v>
       </c>
       <c r="L6" t="n">
-        <v>148971.0879342791</v>
+        <v>148971.0879342785</v>
       </c>
       <c r="M6" t="n">
-        <v>24512.9795013088</v>
+        <v>24512.97950130828</v>
       </c>
       <c r="N6" t="n">
-        <v>159313.9947351454</v>
+        <v>159313.9947351456</v>
       </c>
       <c r="O6" t="n">
-        <v>159313.9947351458</v>
+        <v>159313.994735146</v>
       </c>
       <c r="P6" t="n">
-        <v>115151.3894323003</v>
+        <v>115151.3894323001</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26753,28 +26753,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26802,13 +26802,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855698</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>187.0796229679636</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>7.287303617832094</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,67 +27455,67 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>216.8777264409331</v>
       </c>
       <c r="V4" t="n">
-        <v>79.93010534044828</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>181.358875049672</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>48.86507115465839</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27822,22 +27822,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>262.9528943355527</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>61.51520314918815</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>161.6965533189364</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>141.2012504944192</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,10 +27901,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>30.36167714588635</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>2.037078185762056</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,7 +35495,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>406.4618263286133</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>630.4412169741155</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>329.5684730204368</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>482.1033309642235</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341706</v>
+        <v>532.8670379385733</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145243</v>
+        <v>630.4412169741155</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36762,7 +36762,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>350.198519175048</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>294.2627707717787</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>155.6761016772989</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>62.54807759626086</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37865,19 +37865,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>492.4584513372609</v>
       </c>
       <c r="N42" t="n">
-        <v>457.5346514843358</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414415</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>212.1940780208849</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
